--- a/DATA/SOURCE DATA/Public housing/Waitlist_trend.xlsx
+++ b/DATA/SOURCE DATA/Public housing/Waitlist_trend.xlsx
@@ -1236,9 +1236,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5043E1E1-6C8A-4CCF-8D43-AF6BF4D2842D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84F81201-9FAA-4D04-B549-3E03C81DE3A5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B187C11-83F0-4F53-A64C-10E60C2EE61E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D81C608-714F-46E5-8587-CF950BBDE0D4}"/>
 </file>
--- a/DATA/SOURCE DATA/Public housing/Waitlist_trend.xlsx
+++ b/DATA/SOURCE DATA/Public housing/Waitlist_trend.xlsx
@@ -1236,9 +1236,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84F81201-9FAA-4D04-B549-3E03C81DE3A5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59CC529C-7857-4340-884B-92976F97FCCD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D81C608-714F-46E5-8587-CF950BBDE0D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E6EF2B-B2FF-4A55-A762-A5DBDE2E26F1}"/>
 </file>